--- a/component_labels.xlsx
+++ b/component_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devteams\itxs_team\Database\AltiumDesignerLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE29F629-0BF5-4963-A3A9-6FC36E73FC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DA9340-EBD1-405B-BF17-26896D48603E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>RF shield</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Antenna</t>
   </si>
   <si>
-    <t>RF connector</t>
-  </si>
-  <si>
     <t>AC power filter</t>
   </si>
   <si>
@@ -218,10 +215,6 @@
     <t>Glue</t>
   </si>
   <si>
-    <t>Watchdog /
-Supervisor</t>
-  </si>
-  <si>
     <t>RF RLC</t>
   </si>
   <si>
@@ -331,6 +324,163 @@
   </si>
   <si>
     <t>Touch IC</t>
+  </si>
+  <si>
+    <t>Conn rectangular</t>
+  </si>
+  <si>
+    <t>Conn SIM</t>
+  </si>
+  <si>
+    <t>Conn SD card</t>
+  </si>
+  <si>
+    <t>Conn RF</t>
+  </si>
+  <si>
+    <t>Conn misc</t>
+  </si>
+  <si>
+    <t>Conn terminal
+block</t>
+  </si>
+  <si>
+    <t>Conn RF SMD</t>
+  </si>
+  <si>
+    <t>Conn RF THD</t>
+  </si>
+  <si>
+    <t>Conn spring/
+pogo pin</t>
+  </si>
+  <si>
+    <t>Conn video</t>
+  </si>
+  <si>
+    <t>Conn FPC</t>
+  </si>
+  <si>
+    <t>Conn FRC</t>
+  </si>
+  <si>
+    <t>Bare FRC</t>
+  </si>
+  <si>
+    <t>Bare FPC</t>
+  </si>
+  <si>
+    <t>Conn
+board to board</t>
+  </si>
+  <si>
+    <t>Conn power jack</t>
+  </si>
+  <si>
+    <t>Conn audio jack</t>
+  </si>
+  <si>
+    <t>Conn pin header</t>
+  </si>
+  <si>
+    <t>FPGA/CPLD IC</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Motor driver IC</t>
+  </si>
+  <si>
+    <t>AC coil filter</t>
+  </si>
+  <si>
+    <t>Antenna feeder</t>
+  </si>
+  <si>
+    <t>LED SMD</t>
+  </si>
+  <si>
+    <t>LED THD</t>
+  </si>
+  <si>
+    <t>Motor driver
+module</t>
+  </si>
+  <si>
+    <t>MCU development
+board</t>
+  </si>
+  <si>
+    <t>FPGA
+development board</t>
+  </si>
+  <si>
+    <t>Audio amplifier IC</t>
+  </si>
+  <si>
+    <t>Audio amplifier
+development board</t>
+  </si>
+  <si>
+    <t>Watchdog /
+Supervisor IC</t>
+  </si>
+  <si>
+    <t>Sensors
+development board</t>
+  </si>
+  <si>
+    <t>Plastic/rubber
+furniture</t>
+  </si>
+  <si>
+    <t>SRAM IC</t>
+  </si>
+  <si>
+    <t>SPI Flash IC</t>
+  </si>
+  <si>
+    <t>NAND Flash IC</t>
+  </si>
+  <si>
+    <t>Current sensor IC</t>
+  </si>
+  <si>
+    <t>ADC IC</t>
+  </si>
+  <si>
+    <t>DAC IC</t>
+  </si>
+  <si>
+    <t>ADC/DAC IC</t>
+  </si>
+  <si>
+    <t>ESD for interfaces</t>
+  </si>
+  <si>
+    <t>Thermal shrinks</t>
+  </si>
+  <si>
+    <t>Endstop/
+Detector switch</t>
+  </si>
+  <si>
+    <t>Singleboard
+computers</t>
+  </si>
+  <si>
+    <t>Bare wire</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Knobs/Stickers,
+button caps</t>
   </si>
 </sst>
 </file>
@@ -353,12 +503,28 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF37CBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0000FF"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="2">
@@ -385,10 +551,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,12 +568,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Ячейка компонентов" xfId="1" xr:uid="{0FC9F17A-45F2-4F94-950A-91974E0E344C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF37CBFF"/>
+      <color rgb="FFFFB96D"/>
+      <color rgb="FFFF8601"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -681,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -695,13 +879,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -751,351 +935,445 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
   </sheetData>
